--- a/biology/Zoologie/Choucador_à_longue_queue/Choucador_à_longue_queue.xlsx
+++ b/biology/Zoologie/Choucador_à_longue_queue/Choucador_à_longue_queue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Choucador_%C3%A0_longue_queue</t>
+          <t>Choucador_à_longue_queue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lamprotornis caudatus
 Le Choucador à longue queue (Lamprotornis caudatus), aussi appelé Merle métallique à longue queue, est une espèce d'oiseaux de la famille des Sturnidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Choucador_%C3%A0_longue_queue</t>
+          <t>Choucador_à_longue_queue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes mesurent 54 cm de long. Le plumage du dessus est vert métallique, alors que le ventre est violet, ainsi que la queue, qui mesure 34 cm. La face est noire avec les yeux jaunes. Il n'y a pas de dimorphisme sexuel apparent. Les juvéniles sont plus mats, avec un plumage tirant plus sur le brun.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Choucador_%C3%A0_longue_queue</t>
+          <t>Choucador_à_longue_queue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Choucador à longue queue construit son nid dans un trou, où la femelle pond 2 à 4 œufs, bleu pâle et tachés de brun[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Choucador à longue queue construit son nid dans un trou, où la femelle pond 2 à 4 œufs, bleu pâle et tachés de brun.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Choucador_%C3%A0_longue_queue</t>
+          <t>Choucador_à_longue_queue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau est plutôt omnivore, se nourrissant de fruits et d'insectes[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau est plutôt omnivore, se nourrissant de fruits et d'insectes.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Choucador_%C3%A0_longue_queue</t>
+          <t>Choucador_à_longue_queue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau peuple la région du Soudan, qui part du Sénégal au Soudan.
 Il vit dans les régions boisées ou les terrains ouverts à la culture.
